--- a/Practo Lab test.xlsx
+++ b/Practo Lab test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/bolleddula-ruchita_bolleddula-ruchita_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="8_{F2B4C54A-642D-4D8D-9E39-F80474ECD61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0319232-FBBC-4B74-AB37-B7B4C51AD168}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="8_{F2B4C54A-642D-4D8D-9E39-F80474ECD61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA5243F-2702-4889-8CF8-96D659522793}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{24466B02-DBDD-4FBA-9277-043ED4945DFC}"/>
+    <workbookView minimized="1" xWindow="4800" yWindow="1460" windowWidth="14400" windowHeight="9820" activeTab="1" xr2:uid="{24466B02-DBDD-4FBA-9277-043ED4945DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="UserStory" sheetId="1" r:id="rId1"/>
@@ -196,9 +196,6 @@
     <t>1. Add  Test to cart                                                                                   2. Validate cart icon                                                                               3. Validate cart retains items</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Validate Checkout                                                                            2. Validate Pagement Page                                            </t>
-  </si>
-  <si>
     <t>Actual Result</t>
   </si>
   <si>
@@ -677,6 +674,9 @@
   </si>
   <si>
     <t>Complition Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Validate Checkout                                                                            2. Validate Payement Page                                            </t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -893,16 +893,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -931,6 +922,12 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -950,10 +947,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1278,8 +1271,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1290,35 +1283,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1400,8 +1393,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1414,31 +1407,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -1455,10 +1448,10 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -1475,10 +1468,10 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
@@ -1495,10 +1488,10 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
@@ -1515,10 +1508,10 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
@@ -1535,10 +1528,10 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>48</v>
@@ -1550,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1566,8 +1559,8 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="98" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="C3" zoomScale="98" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1583,464 +1576,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
         <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
       </c>
       <c r="I2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>167</v>
+      <c r="A3" t="s">
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
       </c>
       <c r="I3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>168</v>
+      <c r="A4" t="s">
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" t="s">
         <v>93</v>
-      </c>
-      <c r="H4" t="s">
-        <v>94</v>
       </c>
       <c r="I4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>169</v>
+      <c r="A5" t="s">
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>170</v>
+      <c r="A6" t="s">
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>171</v>
+      <c r="A7" t="s">
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
         <v>97</v>
-      </c>
-      <c r="H7" t="s">
-        <v>98</v>
       </c>
       <c r="I7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>172</v>
+      <c r="A8" t="s">
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
         <v>99</v>
-      </c>
-      <c r="H8" t="s">
-        <v>100</v>
       </c>
       <c r="I8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>173</v>
+      <c r="A9" t="s">
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s">
         <v>101</v>
-      </c>
-      <c r="H9" t="s">
-        <v>102</v>
       </c>
       <c r="I9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>174</v>
+      <c r="A10" t="s">
+        <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
         <v>103</v>
-      </c>
-      <c r="H10" t="s">
-        <v>104</v>
       </c>
       <c r="I10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>175</v>
+      <c r="A11" t="s">
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>176</v>
+      <c r="A12" t="s">
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>177</v>
+      <c r="A13" t="s">
+        <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>178</v>
+      <c r="A14" t="s">
+        <v>177</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>179</v>
+      <c r="A15" t="s">
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>180</v>
+      <c r="A16" t="s">
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
         <v>38</v>
@@ -2076,83 +2069,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="9" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>132</v>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +2162,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2182,291 +2175,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" t="s">
         <v>187</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>82</v>
+      <c r="F3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F16" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2498,54 +2491,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="J2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -2559,16 +2552,15 @@
       <c r="F3">
         <v>15</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>0.8</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>0.2</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>1</v>
       </c>
-      <c r="J3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Practo Lab test.xlsx
+++ b/Practo Lab test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/bolleddula-ruchita_bolleddula-ruchita_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="787" documentId="8_{F2B4C54A-642D-4D8D-9E39-F80474ECD61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04ADB911-FE26-4AAA-93A6-A2F2CE138237}"/>
+  <xr:revisionPtr revIDLastSave="887" documentId="8_{F2B4C54A-642D-4D8D-9E39-F80474ECD61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE70BA07-BE80-43CE-8F2D-8098DF502771}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{24466B02-DBDD-4FBA-9277-043ED4945DFC}"/>
+    <workbookView minimized="1" xWindow="4800" yWindow="1460" windowWidth="14400" windowHeight="9820" activeTab="3" xr2:uid="{24466B02-DBDD-4FBA-9277-043ED4945DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Participate Module" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="TestCases" sheetId="3" r:id="rId4"/>
     <sheet name="Defect Report" sheetId="4" r:id="rId5"/>
     <sheet name="RTM" sheetId="6" r:id="rId6"/>
-    <sheet name="Summary " sheetId="7" r:id="rId7"/>
+    <sheet name="Summary Report" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="308">
   <si>
     <t>Priority</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Assigned To</t>
   </si>
   <si>
-    <t>Lab Tests</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -197,39 +194,6 @@
     <t>TC_ID</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>DR_ID</t>
-  </si>
-  <si>
-    <t>TEST EXECUTION SUMMARY</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Module Name</t>
-  </si>
-  <si>
-    <t>Total Cases</t>
-  </si>
-  <si>
-    <t>Total Passed</t>
-  </si>
-  <si>
-    <t>Total Failed</t>
-  </si>
-  <si>
-    <t>Total Executed</t>
-  </si>
-  <si>
-    <t>Pass Percentage</t>
-  </si>
-  <si>
-    <t>Fail Percentage</t>
-  </si>
-  <si>
     <t>Practo</t>
   </si>
   <si>
@@ -311,57 +275,24 @@
     <t>TR_Practo_LabTests_01</t>
   </si>
   <si>
-    <t>TC_Practo_LabTest_05</t>
-  </si>
-  <si>
-    <t>TC_Practo_LabTest_01</t>
-  </si>
-  <si>
-    <t>TC_Practo_LabTest_02</t>
-  </si>
-  <si>
     <t>BR_Practo_LabTest_02</t>
   </si>
   <si>
     <t>TR_Practo_LabTests_02</t>
   </si>
   <si>
-    <t>TC_Practo_LabTest_03</t>
-  </si>
-  <si>
-    <t>TC_Practo_LabTest_04</t>
-  </si>
-  <si>
     <t>BR_Practo_LabTest_03</t>
   </si>
   <si>
     <t>TR_Practo_LabTests_03</t>
   </si>
   <si>
-    <t>TC_Practo_LabTest_06</t>
-  </si>
-  <si>
-    <t>TC_Practo_LabTest_07</t>
-  </si>
-  <si>
-    <t>TC_Practo_LabTest_08</t>
-  </si>
-  <si>
     <t>BR_Practo_LabTest_04</t>
   </si>
   <si>
     <t>TR_Practo_LabTests_04</t>
   </si>
   <si>
-    <t>TC_Practo_LabTest_09</t>
-  </si>
-  <si>
-    <t>TC_Practo_LabTest_10</t>
-  </si>
-  <si>
-    <t>TC_Practo_LabTest_11</t>
-  </si>
-  <si>
     <t>BR_Practo_LabTest_05</t>
   </si>
   <si>
@@ -374,21 +305,6 @@
     <t>TR_Practo_LabTests_06</t>
   </si>
   <si>
-    <t>TC_Practo_LabTest_12</t>
-  </si>
-  <si>
-    <t>TC_Practo_LabTest_13</t>
-  </si>
-  <si>
-    <t>TC_Practo_LabTest_14</t>
-  </si>
-  <si>
-    <t>TC_Practo_LabTest_15</t>
-  </si>
-  <si>
-    <t>Complition Percentage</t>
-  </si>
-  <si>
     <t>TC_Practo_LabTests_16</t>
   </si>
   <si>
@@ -480,9 +396,6 @@
   </si>
   <si>
     <t xml:space="preserve">Health checkups page </t>
-  </si>
-  <si>
-    <t>Medicines page</t>
   </si>
   <si>
     <t>Epic_01 Practo Lab Test Functionality</t>
@@ -598,9 +511,6 @@
   </si>
   <si>
     <t>Should navigate to test page</t>
-  </si>
-  <si>
-    <t>Pending actual result</t>
   </si>
   <si>
     <t>1. Scroll down
@@ -744,9 +654,6 @@
   </si>
   <si>
     <t>The price for Lipid Profile test is missing on the test details page.</t>
-  </si>
-  <si>
-    <t>v1.0.3</t>
   </si>
   <si>
     <t>1. Navigate to Lab Tests page
@@ -929,14 +836,221 @@
     <t>BR_Practo_findDoctor_01</t>
   </si>
   <si>
-    <t>BR_Practo_SearchforHospitalt_04</t>
+    <t>Defect_Id</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Test Summary Report format</t>
+  </si>
+  <si>
+    <t>1.Test Objective:</t>
+  </si>
+  <si>
+    <r>
+      <t>2.Application Overview :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>3.Testing Scope:</t>
+  </si>
+  <si>
+    <t>In-Scope:</t>
+  </si>
+  <si>
+    <t>Testing for the following are in scope:</t>
+  </si>
+  <si>
+    <t>Out of Scope:</t>
+  </si>
+  <si>
+    <t>Areas not covered:</t>
+  </si>
+  <si>
+    <t>Following areas are not covered:</t>
+  </si>
+  <si>
+    <t>4.Test Metrices:</t>
+  </si>
+  <si>
+    <t>Total number of test cases planned:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Executed:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Passed:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Failed:</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Planned</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Executed</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Passed</t>
+  </si>
+  <si>
+    <t>Total number of Test cases Failed</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>All the test steps were successfully executed, and the expected results were achieved.</t>
+  </si>
+  <si>
+    <t>Graphical representation:</t>
+  </si>
+  <si>
+    <t>Requirement Traceability Matrix</t>
+  </si>
+  <si>
+    <t>LI_BR_05</t>
+  </si>
+  <si>
+    <t>TR_06</t>
+  </si>
+  <si>
+    <t>TS_10</t>
+  </si>
+  <si>
+    <t>5.Types of testing performed</t>
+  </si>
+  <si>
+    <t>Functionality Testing</t>
+  </si>
+  <si>
+    <t>Usability Testing</t>
+  </si>
+  <si>
+    <t>Acceptance Testing</t>
+  </si>
+  <si>
+    <t>UI Testing</t>
+  </si>
+  <si>
+    <t>Integrtion Testing</t>
+  </si>
+  <si>
+    <t>6.Test Environment and Tools Used:</t>
+  </si>
+  <si>
+    <t>Application URL</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Tools Used</t>
+  </si>
+  <si>
+    <t>7.Recommendations and Suggestions:</t>
+  </si>
+  <si>
+    <t>8.Exit Criteria:</t>
+  </si>
+  <si>
+    <t>1. All the test cases that were planned are executed successfully.</t>
+  </si>
+  <si>
+    <t>2.No critical defects impacting the core functionality of the website.</t>
+  </si>
+  <si>
+    <t>3. All the identified issues are documented with clear steps to reproduce and resolve.</t>
+  </si>
+  <si>
+    <t>9.Sign Off:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This document captures all testing activities for the Practo Lab Tests module, including homepage navigation, test search, cart management, and payment flow.		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practo Lab Tests allows users to book medical tests online, select cities, view test details, manage cart, and complete payment securely.		</t>
+  </si>
+  <si>
+    <t>1. Homepage navigation</t>
+  </si>
+  <si>
+    <t>2. Lab Tests page</t>
+  </si>
+  <si>
+    <t>3. Lipid Test details</t>
+  </si>
+  <si>
+    <t>4. City selection and search</t>
+  </si>
+  <si>
+    <t>5. Add to Cart functionality</t>
+  </si>
+  <si>
+    <t>6. Remove from Cart functionality</t>
+  </si>
+  <si>
+    <t>7. Validate booking flow till payment page</t>
+  </si>
+  <si>
+    <t>Doctor consultation module</t>
+  </si>
+  <si>
+    <t>2. Mobile Responsiveness Testing</t>
+  </si>
+  <si>
+    <t>1.PayementPage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MS Excel</t>
+  </si>
+  <si>
+    <t>Verifies that the Practo Lab Tests module works as expected according to requirements (homepage, search, cart, etc.).</t>
+  </si>
+  <si>
+    <t>Ensures the module is user-friendly and intuitive for booking tests and navigating pages.</t>
+  </si>
+  <si>
+    <t>Validates that the module meets business needs and stakeholder expectations for online lab test booking.</t>
+  </si>
+  <si>
+    <t>Checks graphical interface elements like buttons, menus, and forms for consistency and responsiveness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifies interactions between different components (homepage, cart, payment gateway) to ensure seamless workflow. </t>
+  </si>
+  <si>
+    <t>Encourage users to provide feedback through surveys and polls to continuously improve the Lab Tests module.Enhance error handling for invalid city searches.Ensure price visibility on all test detail pages.Optimize payment page loading for better user experience.</t>
+  </si>
+  <si>
+    <t>Considering the nature of the identified defects as low severity and the completion of all planned test cases, the testing team recommends proceeding with the release of the Lab Tests module.
+Further enhancements and defect resolutions can be scheduled for subsequent releases.</t>
+  </si>
+  <si>
+    <t>BR_Practo_SearchforHospital_04</t>
+  </si>
+  <si>
+    <t>Clinics page</t>
+  </si>
+  <si>
+    <t>Lipid Tests page opens</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,29 +1082,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1014,31 +1105,83 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1070,8 +1213,38 @@
         <bgColor rgb="FF4F81BD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1168,115 +1341,336 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1291,6 +1685,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>891228</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2328335</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>160585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789F1C38-3A10-AECB-F103-A02839347C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1960702" y="10772719"/>
+          <a:ext cx="9547282" cy="3714357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1612,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B655076F-438F-4425-A229-70D90F5E7656}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1625,159 +2068,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="19">
-        <v>1</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="19">
-        <v>2</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>272</v>
+      <c r="E7" s="15" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="19">
+      <c r="A8" s="4"/>
+      <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>106</v>
+      <c r="C8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="19">
+      <c r="A9" s="4"/>
+      <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>273</v>
+      <c r="C9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="19">
+      <c r="A10" s="4"/>
+      <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>271</v>
+      <c r="C10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1792,164 +2235,164 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.54296875" customWidth="1"/>
     <col min="2" max="2" width="86.453125" customWidth="1"/>
-    <col min="3" max="3" width="48.453125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="48.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="78.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="D6" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="34"/>
+      <c r="B7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34"/>
+      <c r="B8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="D8" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="15" t="s">
+    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
+      <c r="B9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="15" t="s">
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="34"/>
+      <c r="B10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="11" t="s">
+      <c r="D10" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="34"/>
+      <c r="B11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="16"/>
       <c r="C12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="16"/>
       <c r="C13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="16"/>
       <c r="C14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
+      <c r="A15" s="16"/>
       <c r="C15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
+      <c r="A16" s="16"/>
       <c r="C16"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
+      <c r="A17" s="16"/>
       <c r="C17"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
+      <c r="A18" s="16"/>
       <c r="C18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
+      <c r="A19" s="16"/>
       <c r="C19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
+      <c r="A20" s="16"/>
       <c r="C20"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
+      <c r="A21" s="16"/>
       <c r="C21"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
+      <c r="A22" s="16"/>
       <c r="C22"/>
     </row>
   </sheetData>
@@ -1968,147 +2411,147 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" style="3" customWidth="1"/>
     <col min="2" max="3" width="30.81640625" customWidth="1"/>
     <col min="4" max="4" width="24.7265625" customWidth="1"/>
     <col min="5" max="5" width="39.81640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="46.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-    </row>
-    <row r="2" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="34" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2127,8 +2570,8 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="77" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2145,68 +2588,68 @@
     <col min="12" max="12" width="36.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="39" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="27" t="s">
+    <row r="1" spans="1:12" s="28" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="J1" s="27" t="s">
+      <c r="H1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>174</v>
+      <c r="L1" s="20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>176</v>
+        <v>146</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -2218,33 +2661,33 @@
         <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>181</v>
+        <v>151</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
@@ -2256,56 +2699,62 @@
         <v>9</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>183</v>
+        <v>153</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="L4" s="1" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>31</v>
@@ -2314,36 +2763,36 @@
         <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>31</v>
@@ -2352,74 +2801,74 @@
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -2428,7 +2877,7 @@
         <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>4</v>
@@ -2440,56 +2889,56 @@
         <v>9</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -2504,7 +2953,7 @@
         <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>4</v>
@@ -2516,33 +2965,33 @@
         <v>13</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>4</v>
@@ -2554,24 +3003,24 @@
         <v>9</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>31</v>
@@ -2580,36 +3029,36 @@
         <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>31</v>
@@ -2618,68 +3067,68 @@
         <v>33</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
@@ -2688,13 +3137,13 @@
         <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>4</v>
@@ -2706,24 +3155,24 @@
         <v>9</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>31</v>
@@ -2732,7 +3181,7 @@
         <v>35</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>4</v>
@@ -2744,45 +3193,45 @@
         <v>9</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2790,8 +3239,8 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{0EC3F10D-DDC6-41C3-A151-067AD7AA470E}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{66A35414-95AE-41B8-A404-CD14554D20DB}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{32344511-4E20-4F10-8E8D-5706FC4422A9}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{32344511-4E20-4F10-8E8D-5706FC4422A9}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{66A35414-95AE-41B8-A404-CD14554D20DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2804,8 +3253,8 @@
   </sheetPr>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2825,182 +3274,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="E4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="F4" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="G4" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="J4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="M4" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="N4" t="s">
         <v>222</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="N1" s="38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C7"/>
+      <c r="E7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3012,10 +3455,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3027,40 +3470,40 @@
     <col min="6" max="6" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -3068,13 +3511,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
       <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
@@ -3082,33 +3522,30 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>243</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
       <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
@@ -3116,47 +3553,41 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
       <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
       <c r="D8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
@@ -3164,47 +3595,41 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
       <c r="D9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E11" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
@@ -3212,13 +3637,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
       <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
@@ -3226,19 +3648,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="D13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
@@ -3246,13 +3659,19 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
       <c r="D14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
@@ -3260,19 +3679,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
@@ -3280,40 +3690,37 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
       <c r="D16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F16" t="s">
-        <v>86</v>
+      <c r="F17" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3324,101 +3731,1345 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="B1:K92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="56" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" customWidth="1"/>
-    <col min="9" max="9" width="21.08984375" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" customWidth="1"/>
+    <col min="4" max="4" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="34.453125" customWidth="1"/>
+    <col min="8" max="8" width="55.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="2:11" ht="31" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="4"/>
+      <c r="C1" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="2:11" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="4"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
+      <c r="C4" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
+      <c r="C6" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
+      <c r="C9" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="4"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="4"/>
+      <c r="C17" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
+      <c r="C18" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="4"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="4"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B22" s="4"/>
+      <c r="C22" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B23" s="4"/>
+      <c r="C23" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="51">
+        <v>16</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B24" s="4"/>
+      <c r="C24" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="51">
+        <v>16</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B25" s="4"/>
+      <c r="C25" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="51">
+        <v>13</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B26" s="4"/>
+      <c r="C26" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="51">
+        <v>3</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B27" s="4"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="4"/>
+      <c r="C28" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="40"/>
+      <c r="C29" s="109">
+        <v>16</v>
+      </c>
+      <c r="D29" s="110">
+        <v>16</v>
+      </c>
+      <c r="E29" s="110">
+        <v>13</v>
+      </c>
+      <c r="F29" s="110">
+        <v>3</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="H29" s="111"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="4"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B31" s="4"/>
+      <c r="C31" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B32" s="4"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" s="4"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="4"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B36" s="4"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B38" s="4"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B39" s="4"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B41" s="4"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B42" s="4"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B43" s="4"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B44" s="4"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B45" s="4"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="4"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="4"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="4"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B51" s="4"/>
+      <c r="C51" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="2:11" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C54" s="94"/>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C55" s="94"/>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="94"/>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C57" s="94"/>
+      <c r="E57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C58" s="94"/>
+      <c r="E58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="94"/>
+      <c r="D59" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="E59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C60" s="94"/>
+      <c r="E60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C61" s="94"/>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="94"/>
+      <c r="D62" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C63" s="94"/>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C64" s="94"/>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="94"/>
+      <c r="D65" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C66" s="94"/>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="94"/>
+      <c r="D67" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C68" s="94"/>
+      <c r="D68" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B69" s="4"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B70" s="4"/>
+      <c r="C70" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="4"/>
+      <c r="C71" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="D71" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="E71" s="96"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="96"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="2:11" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="4"/>
+      <c r="C72" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="100"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="2:11" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="4"/>
+      <c r="C73" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="95" t="s">
+        <v>300</v>
+      </c>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="97"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="2:11" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="4"/>
+      <c r="C74" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="D74" s="98" t="s">
+        <v>301</v>
+      </c>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="100"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="4"/>
+      <c r="C75" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="80"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B76" s="4"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B77" s="4"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B78" s="4"/>
+      <c r="C78" s="101" t="s">
+        <v>275</v>
+      </c>
+      <c r="D78" s="102"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B79" s="4"/>
+      <c r="C79" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="D79" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+      <c r="C80" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="D80" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B81" s="4"/>
+      <c r="C81" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="D81" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B82" s="4"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B83" s="4"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B84" s="4"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="2:11" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="55"/>
+      <c r="C85" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="D85" s="112" t="s">
+        <v>303</v>
+      </c>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="114"/>
+      <c r="H85" s="115"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B86" s="4"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="4"/>
+      <c r="C87" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" s="106" t="s">
+        <v>281</v>
+      </c>
+      <c r="E87" s="107"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="108"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="4"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="106" t="s">
+        <v>282</v>
+      </c>
+      <c r="E88" s="107"/>
+      <c r="F88" s="107"/>
+      <c r="G88" s="107"/>
+      <c r="H88" s="108"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="4"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="106" t="s">
+        <v>283</v>
+      </c>
+      <c r="E89" s="107"/>
+      <c r="F89" s="107"/>
+      <c r="G89" s="107"/>
+      <c r="H89" s="108"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B90" s="4"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B91" s="4"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="4"/>
+      <c r="C92" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="D92" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="79"/>
+      <c r="H92" s="80"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="23">
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:H87"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D89:H89"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C53:C68"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D79" r:id="rId1" xr:uid="{EFF7EF0F-159E-49FE-BD46-A0E34BFD93D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>